--- a/chapter5/Chapter5-roc-1a.xlsx
+++ b/chapter5/Chapter5-roc-1a.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hong\booksWriting\dataMiningInExcel\Chapter5\ch5-src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0CB10-70BB-442F-BABC-DC223720D12E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="ROC-data" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Cut-off</t>
   </si>
@@ -59,15 +53,21 @@
   <si>
     <t>False Negative</t>
   </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>specifity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,388 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ROC-data'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sensitivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ROC-data'!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ROC-data'!$F$3:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ROC-data'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>specifity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ROC-data'!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ROC-data'!$G$3:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="37499648"/>
+        <c:axId val="37497856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="37499648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37497856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="37497856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37499648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -162,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +596,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -408,33 +790,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -448,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,10 +846,14 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>552</v>
       </c>
@@ -483,10 +869,16 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <f>A3/(A3+B3)</f>
+        <v>0.92</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3/(D3+C3)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>552</v>
       </c>
@@ -502,10 +894,16 @@
       <c r="E4">
         <v>1.5</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F21" si="0">A4/(A4+B4)</f>
+        <v>0.92</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G21" si="1">D4/(D4+C4)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>552</v>
       </c>
@@ -521,10 +919,16 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>547</v>
       </c>
@@ -540,10 +944,16 @@
       <c r="E6">
         <v>2.5</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91166666666666663</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>546</v>
       </c>
@@ -559,10 +969,16 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>540</v>
       </c>
@@ -578,10 +994,16 @@
       <c r="E8">
         <v>3.5</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>534</v>
       </c>
@@ -597,10 +1019,16 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>528</v>
       </c>
@@ -616,10 +1044,16 @@
       <c r="E10">
         <v>4.5</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>516</v>
       </c>
@@ -635,10 +1069,16 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>504</v>
       </c>
@@ -654,10 +1094,16 @@
       <c r="E12">
         <v>5.5</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>480</v>
       </c>
@@ -673,10 +1119,16 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>450</v>
       </c>
@@ -692,10 +1144,16 @@
       <c r="E14">
         <v>6.5</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>420</v>
       </c>
@@ -711,10 +1169,16 @@
       <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>390</v>
       </c>
@@ -730,10 +1194,16 @@
       <c r="E16">
         <v>7.5</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>342</v>
       </c>
@@ -749,10 +1219,16 @@
       <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>312</v>
       </c>
@@ -768,10 +1244,16 @@
       <c r="E18">
         <v>8.5</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>258</v>
       </c>
@@ -787,10 +1269,16 @@
       <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>243</v>
       </c>
@@ -806,10 +1294,16 @@
       <c r="E20">
         <v>9.5</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>183</v>
       </c>
@@ -825,97 +1319,248 @@
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>9.5</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>8.5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>7.5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>6.5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>5.5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>4.5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>3.5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2.5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.91166666666666663</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1.5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:E45">
-    <sortCondition descending="1" ref="A27:A45"/>
+  <sortState ref="A25:C43">
+    <sortCondition descending="1" ref="A25:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>